--- a/InputFiles/CCDI/TC05_CCDI_phs003519_FileMap-Sample_StudyStatus-Completed_LibrSourMat-SingleCells_LibrSourMolec-Genomic.xlsx
+++ b/InputFiles/CCDI/TC05_CCDI_phs003519_FileMap-Sample_StudyStatus-Completed_LibrSourMat-SingleCells_LibrSourMolec-Genomic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8827415-DA91-476E-87C4-BB934A469F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F6A293-CF35-4F76-A741-C40CB732FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -192,33 +192,6 @@
     <t>TC05_CCDI_phs003519_FileMap-Sample_StudyStatus-Completed_LibrSourMat-SingleCells_LibrSourMolec-Genomic_WebData.xlsx</t>
   </si>
   <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    CASE 
-        WHEN COUNT(DISTINCT seq.id) &gt;= 1000 
-        THEN printf('%,d', COUNT(DISTINCT seq.id)) 
-        ELSE CAST(COUNT(DISTINCT seq.id) AS TEXT)
-    END AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"  
-LEFT JOIN
-    df_survival srv ON prt.id = srv."participant.id"   
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs003519' and std.study_status = 'Completed'
-    AND seq."sample.id" IS NOT NULL
-     and seq.library_source_molecule = 'Genomic' and seq.library_source_material='Single-cells';</t>
-  </si>
-  <si>
     <t>with diagnosis1 as (
 select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
 diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
@@ -344,6 +317,29 @@
     AND seq."sample.id" IS NOT NULL
 ORDER BY  seq.file_name
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
+    COUNT(DISTINCT prt.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+ COUNT(DISTINCT seq.id)  AS "Files"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"  
+LEFT JOIN
+    df_survival srv ON prt.id = srv."participant.id"   
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+WHERE 
+    std.dbgap_accession = 'phs003519' and std.study_status = 'Completed'
+    AND seq."sample.id" IS NOT NULL
+     and seq.library_source_molecule = 'Genomic' and seq.library_source_material='Single-cells';</t>
   </si>
 </sst>
 </file>
@@ -745,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -805,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -814,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
